--- a/project/recent_goldndollar.xlsx
+++ b/project/recent_goldndollar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Phython\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF9FA8-D9CA-498B-BF12-A8003672A0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE15EADA-C82F-4496-9D35-4942CEEB30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{739E3E1F-DD19-4FF7-9CFA-E437F8DC69F7}"/>
+    <workbookView minimized="1" xWindow="30855" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{739E3E1F-DD19-4FF7-9CFA-E437F8DC69F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E7CCE-A078-41F2-B332-7721E8B374EE}">
   <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C222"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
